--- a/Assets/Spreadsheets/WeaponOptions.xlsx
+++ b/Assets/Spreadsheets/WeaponOptions.xlsx
@@ -502,43 +502,43 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="1">
-        <v>3.0</v>
+        <v>1.3</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
       </c>
       <c r="G2" s="1">
-        <v>2.0</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="1">
-        <v>4.0</v>
+        <v>1.7</v>
       </c>
       <c r="I2" s="1">
         <v>1.0</v>
       </c>
       <c r="J2" s="1">
-        <v>3.0</v>
+        <v>1.9</v>
       </c>
       <c r="K2" s="1">
-        <v>6.0</v>
+        <v>2.2</v>
       </c>
       <c r="L2" s="1">
         <v>1.0</v>
       </c>
       <c r="M2" s="1">
-        <v>4.0</v>
+        <v>2.4</v>
       </c>
       <c r="N2" s="1">
-        <v>8.0</v>
+        <v>2.7</v>
       </c>
       <c r="O2" s="1">
         <v>2.0</v>
       </c>
       <c r="P2" s="1">
-        <v>5.0</v>
+        <v>2.8</v>
       </c>
       <c r="Q2" s="1">
-        <v>10.0</v>
+        <v>3.1</v>
       </c>
       <c r="R2" s="1">
         <v>2.0</v>
